--- a/data/processed_survey_data.xlsx
+++ b/data/processed_survey_data.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Humanities</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8741,17 +8741,17 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Fair</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -15321,17 +15321,17 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -20211,7 +20211,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Humanities</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">

--- a/data/processed_survey_data.xlsx
+++ b/data/processed_survey_data.xlsx
@@ -8741,17 +8741,17 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
           <t>Excellent</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Fair</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -15321,17 +15321,17 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Fair</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
